--- a/RelatorioFinal_T2FS_2019-02.xlsx
+++ b/RelatorioFinal_T2FS_2019-02.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\Desktop\VITU NA ECP\4 SEMESTRE\SISOP\trab2\T2-Sisop-2019-2\t2fs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\Desktop\VITU NA ECP\4 SEMESTRE\SISOP\trab2\repositoriobuffer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -293,42 +293,42 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,8 +647,8 @@
   <sheetPr codeName="Plan1"/>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,13 +661,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -688,11 +688,11 @@
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
@@ -702,12 +702,12 @@
       <c r="A4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="26">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="19">
         <v>275540</v>
       </c>
       <c r="F4" s="5"/>
@@ -718,12 +718,12 @@
       <c r="A5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="26">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="19">
         <v>228271</v>
       </c>
       <c r="F5" s="5"/>
@@ -734,12 +734,12 @@
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="26">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="19">
         <v>252859</v>
       </c>
       <c r="F6" s="5"/>
@@ -754,47 +754,47 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -805,11 +805,11 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -833,75 +833,75 @@
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
+      <c r="B15" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
+      <c r="B16" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
+      <c r="B17" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
+      <c r="B18" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
+      <c r="B19" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28" t="s">
-        <v>38</v>
-      </c>
+      <c r="B20" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="10"/>
@@ -910,20 +910,20 @@
       <c r="A22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
+      <c r="B22" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21" t="s">
         <v>38</v>
       </c>
       <c r="E23" s="18"/>
@@ -932,9 +932,9 @@
       <c r="A24" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29" t="s">
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21" t="s">
         <v>38</v>
       </c>
       <c r="E24" s="18"/>
@@ -943,9 +943,9 @@
       <c r="A25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21" t="s">
         <v>38</v>
       </c>
       <c r="E25" s="18"/>
@@ -954,9 +954,9 @@
       <c r="A26" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21" t="s">
         <v>38</v>
       </c>
       <c r="E26" s="18"/>
@@ -965,33 +965,33 @@
       <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
+      <c r="B27" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="18"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
+      <c r="B28" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
+      <c r="B29" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
       <c r="E29" s="18"/>
     </row>
   </sheetData>
